--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Mdk-Tspan1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Mdk-Tspan1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.44561088907408</v>
+        <v>2.891504666666667</v>
       </c>
       <c r="H2">
-        <v>2.44561088907408</v>
+        <v>8.674514</v>
       </c>
       <c r="I2">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="J2">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.05338087949464</v>
+        <v>0.18316</v>
       </c>
       <c r="N2">
-        <v>1.05338087949464</v>
+        <v>0.54948</v>
       </c>
       <c r="O2">
-        <v>0.5462386515706825</v>
+        <v>0.07387220463520254</v>
       </c>
       <c r="P2">
-        <v>0.5462386515706825</v>
+        <v>0.07387220463520254</v>
       </c>
       <c r="Q2">
-        <v>2.576159749234523</v>
+        <v>0.5296079947466666</v>
       </c>
       <c r="R2">
-        <v>2.576159749234523</v>
+        <v>4.76647195272</v>
       </c>
       <c r="S2">
-        <v>0.06705801814196392</v>
+        <v>0.008965060253685105</v>
       </c>
       <c r="T2">
-        <v>0.06705801814196392</v>
+        <v>0.008965060253685105</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.44561088907408</v>
+        <v>2.891504666666667</v>
       </c>
       <c r="H3">
-        <v>2.44561088907408</v>
+        <v>8.674514</v>
       </c>
       <c r="I3">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="J3">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.875045233278037</v>
+        <v>1.360168666666667</v>
       </c>
       <c r="N3">
-        <v>0.875045233278037</v>
+        <v>4.080506</v>
       </c>
       <c r="O3">
-        <v>0.4537613484293175</v>
+        <v>0.5485840690237529</v>
       </c>
       <c r="P3">
-        <v>0.4537613484293175</v>
+        <v>0.548584069023753</v>
       </c>
       <c r="Q3">
-        <v>2.140020150937135</v>
+        <v>3.932934047120444</v>
       </c>
       <c r="R3">
-        <v>2.140020150937135</v>
+        <v>35.396406424084</v>
       </c>
       <c r="S3">
-        <v>0.05570520622735135</v>
+        <v>0.06657563906879883</v>
       </c>
       <c r="T3">
-        <v>0.05570520622735135</v>
+        <v>0.06657563906879885</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.3792377021134</v>
+        <v>2.891504666666667</v>
       </c>
       <c r="H4">
-        <v>11.3792377021134</v>
+        <v>8.674514</v>
       </c>
       <c r="I4">
-        <v>0.5712077572999406</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="J4">
-        <v>0.5712077572999406</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.05338087949464</v>
+        <v>0.9360883333333335</v>
       </c>
       <c r="N4">
-        <v>1.05338087949464</v>
+        <v>2.808265</v>
       </c>
       <c r="O4">
-        <v>0.5462386515706825</v>
+        <v>0.3775437263410444</v>
       </c>
       <c r="P4">
-        <v>0.5462386515706825</v>
+        <v>0.3775437263410445</v>
       </c>
       <c r="Q4">
-        <v>11.98667141863078</v>
+        <v>2.706703784245556</v>
       </c>
       <c r="R4">
-        <v>11.98667141863078</v>
+        <v>24.36033405821</v>
       </c>
       <c r="S4">
-        <v>0.3120157551142332</v>
+        <v>0.04581834631527081</v>
       </c>
       <c r="T4">
-        <v>0.3120157551142332</v>
+        <v>0.04581834631527081</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.3792377021134</v>
+        <v>12.04042966666667</v>
       </c>
       <c r="H5">
-        <v>11.3792377021134</v>
+        <v>36.121289</v>
       </c>
       <c r="I5">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="J5">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.875045233278037</v>
+        <v>0.18316</v>
       </c>
       <c r="N5">
-        <v>0.875045233278037</v>
+        <v>0.54948</v>
       </c>
       <c r="O5">
-        <v>0.4537613484293175</v>
+        <v>0.07387220463520254</v>
       </c>
       <c r="P5">
-        <v>0.4537613484293175</v>
+        <v>0.07387220463520254</v>
       </c>
       <c r="Q5">
-        <v>9.957347709572053</v>
+        <v>2.205325097746667</v>
       </c>
       <c r="R5">
-        <v>9.957347709572053</v>
+        <v>19.84792587972</v>
       </c>
       <c r="S5">
-        <v>0.2591920021857073</v>
+        <v>0.03733114412239959</v>
       </c>
       <c r="T5">
-        <v>0.2591920021857073</v>
+        <v>0.03733114412239959</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.09651549515173</v>
+        <v>12.04042966666667</v>
       </c>
       <c r="H6">
-        <v>6.09651549515173</v>
+        <v>36.121289</v>
       </c>
       <c r="I6">
-        <v>0.3060290183307441</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="J6">
-        <v>0.3060290183307441</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.05338087949464</v>
+        <v>1.360168666666667</v>
       </c>
       <c r="N6">
-        <v>1.05338087949464</v>
+        <v>4.080506</v>
       </c>
       <c r="O6">
-        <v>0.5462386515706825</v>
+        <v>0.5485840690237529</v>
       </c>
       <c r="P6">
-        <v>0.5462386515706825</v>
+        <v>0.548584069023753</v>
       </c>
       <c r="Q6">
-        <v>6.421952854135631</v>
+        <v>16.37701516580378</v>
       </c>
       <c r="R6">
-        <v>6.421952854135631</v>
+        <v>147.393136492234</v>
       </c>
       <c r="S6">
-        <v>0.1671648783144854</v>
+        <v>0.2772256634969722</v>
       </c>
       <c r="T6">
-        <v>0.1671648783144854</v>
+        <v>0.2772256634969723</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.09651549515173</v>
+        <v>12.04042966666667</v>
       </c>
       <c r="H7">
-        <v>6.09651549515173</v>
+        <v>36.121289</v>
       </c>
       <c r="I7">
-        <v>0.3060290183307441</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="J7">
-        <v>0.3060290183307441</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.875045233278037</v>
+        <v>0.9360883333333335</v>
       </c>
       <c r="N7">
-        <v>0.875045233278037</v>
+        <v>2.808265</v>
       </c>
       <c r="O7">
-        <v>0.4537613484293175</v>
+        <v>0.3775437263410444</v>
       </c>
       <c r="P7">
-        <v>0.4537613484293175</v>
+        <v>0.3775437263410445</v>
       </c>
       <c r="Q7">
-        <v>5.334726823638213</v>
+        <v>11.27090573928723</v>
       </c>
       <c r="R7">
-        <v>5.334726823638213</v>
+        <v>101.438151653585</v>
       </c>
       <c r="S7">
-        <v>0.1388641400162588</v>
+        <v>0.1907908303284752</v>
       </c>
       <c r="T7">
-        <v>0.1388641400162588</v>
+        <v>0.1907908303284752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>8.894099000000001</v>
+      </c>
+      <c r="H8">
+        <v>26.682297</v>
+      </c>
+      <c r="I8">
+        <v>0.3732933164143983</v>
+      </c>
+      <c r="J8">
+        <v>0.3732933164143982</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.18316</v>
+      </c>
+      <c r="N8">
+        <v>0.54948</v>
+      </c>
+      <c r="O8">
+        <v>0.07387220463520254</v>
+      </c>
+      <c r="P8">
+        <v>0.07387220463520254</v>
+      </c>
+      <c r="Q8">
+        <v>1.62904317284</v>
+      </c>
+      <c r="R8">
+        <v>14.66138855556</v>
+      </c>
+      <c r="S8">
+        <v>0.02757600025911784</v>
+      </c>
+      <c r="T8">
+        <v>0.02757600025911784</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>8.894099000000001</v>
+      </c>
+      <c r="H9">
+        <v>26.682297</v>
+      </c>
+      <c r="I9">
+        <v>0.3732933164143983</v>
+      </c>
+      <c r="J9">
+        <v>0.3732933164143982</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.360168666666667</v>
+      </c>
+      <c r="N9">
+        <v>4.080506</v>
+      </c>
+      <c r="O9">
+        <v>0.5485840690237529</v>
+      </c>
+      <c r="P9">
+        <v>0.548584069023753</v>
+      </c>
+      <c r="Q9">
+        <v>12.09747477803133</v>
+      </c>
+      <c r="R9">
+        <v>108.877273002282</v>
+      </c>
+      <c r="S9">
+        <v>0.2047827664579819</v>
+      </c>
+      <c r="T9">
+        <v>0.2047827664579819</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>8.894099000000001</v>
+      </c>
+      <c r="H10">
+        <v>26.682297</v>
+      </c>
+      <c r="I10">
+        <v>0.3732933164143983</v>
+      </c>
+      <c r="J10">
+        <v>0.3732933164143982</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.9360883333333335</v>
+      </c>
+      <c r="N10">
+        <v>2.808265</v>
+      </c>
+      <c r="O10">
+        <v>0.3775437263410444</v>
+      </c>
+      <c r="P10">
+        <v>0.3775437263410445</v>
+      </c>
+      <c r="Q10">
+        <v>8.325662309411669</v>
+      </c>
+      <c r="R10">
+        <v>74.93096078470502</v>
+      </c>
+      <c r="S10">
+        <v>0.1409345496972985</v>
+      </c>
+      <c r="T10">
+        <v>0.1409345496972985</v>
       </c>
     </row>
   </sheetData>
